--- a/Vera/Template/福豆发放模板.xlsx
+++ b/Vera/Template/福豆发放模板.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattz\Documents\WorkSpace\Vera\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB2142-81C6-46B6-BA9F-BD250039AE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="8295"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>公司</t>
   </si>
@@ -44,59 +50,145 @@
   </si>
   <si>
     <t>在职</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月科贷奖励</t>
-  </si>
-  <si>
-    <t>9月份科贷奖励</t>
-  </si>
-  <si>
-    <t>顾长海</t>
-  </si>
-  <si>
-    <t>胡钧</t>
-  </si>
-  <si>
-    <t>刘刚</t>
-  </si>
-  <si>
-    <t>刘扬</t>
-  </si>
-  <si>
-    <t>李志鸿</t>
-  </si>
-  <si>
-    <t>蔡子荣</t>
-  </si>
-  <si>
-    <t>钟涛</t>
-  </si>
-  <si>
-    <t>彭杰飞</t>
-  </si>
-  <si>
-    <t>南京平台</t>
-  </si>
-  <si>
-    <t>华中</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>西南</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>240182</t>
+  </si>
+  <si>
+    <t>240236</t>
+  </si>
+  <si>
+    <t>240259</t>
+  </si>
+  <si>
+    <t>240262</t>
+  </si>
+  <si>
+    <t>240271</t>
+  </si>
+  <si>
+    <t>240295</t>
+  </si>
+  <si>
+    <t>240373</t>
+  </si>
+  <si>
+    <t>240377</t>
+  </si>
+  <si>
+    <t>240404</t>
+  </si>
+  <si>
+    <t>240442</t>
+  </si>
+  <si>
+    <t>240449</t>
+  </si>
+  <si>
+    <t>240516</t>
+  </si>
+  <si>
+    <t>240568</t>
+  </si>
+  <si>
+    <t>240577</t>
+  </si>
+  <si>
+    <t>240615</t>
+  </si>
+  <si>
+    <t>240625</t>
+  </si>
+  <si>
+    <t>240636</t>
+  </si>
+  <si>
+    <t>240648</t>
+  </si>
+  <si>
+    <t>240689</t>
+  </si>
+  <si>
+    <t>240720</t>
+  </si>
+  <si>
+    <t>信颖</t>
+  </si>
+  <si>
+    <t>孙佳</t>
+  </si>
+  <si>
+    <t>叶潘婷</t>
+  </si>
+  <si>
+    <t>沈雅莉</t>
+  </si>
+  <si>
+    <t>张隽懿</t>
+  </si>
+  <si>
+    <t>王雪</t>
+  </si>
+  <si>
+    <t>陈琢仪</t>
+  </si>
+  <si>
+    <t>王玉</t>
+  </si>
+  <si>
+    <t>罗曾</t>
+  </si>
+  <si>
+    <t>王婕妤</t>
+  </si>
+  <si>
+    <t>杨宇佳</t>
+  </si>
+  <si>
+    <t>吕颖</t>
+  </si>
+  <si>
+    <t>陈玥</t>
+  </si>
+  <si>
+    <t>黄康铭</t>
+  </si>
+  <si>
+    <t>殷英</t>
+  </si>
+  <si>
+    <t>倪林丽</t>
+  </si>
+  <si>
+    <t>王海琴</t>
+  </si>
+  <si>
+    <t>杨青青</t>
+  </si>
+  <si>
+    <t>陈佳辉</t>
+  </si>
+  <si>
+    <t>恩思恩有限公司</t>
+  </si>
+  <si>
+    <t>王慧芳</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月生日</t>
+  </si>
+  <si>
+    <t>12月生日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,14 +344,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -292,39 +376,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,20 +568,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -655,19 +701,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -807,122 +840,49 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal 5" xfId="43"/>
-    <cellStyle name="Normal 5 2 2" xfId="44"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Normal 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="42"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="常规 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -931,6 +891,12 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -941,11 +907,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -987,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,9 +993,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,6 +1045,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1228,237 +1238,527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="9" customWidth="1"/>
-    <col min="2" max="8" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="8" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="33">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>280</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>280</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>280</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>280</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>280</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.9">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>280</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.9">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>280</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.9">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>280</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.9">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>280</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.9">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>280</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="13.9">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16">
-        <v>10003175</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="15">
-        <v>415</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A3" s="26" t="s">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>280</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.9">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17">
-        <v>10003730</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="23">
-        <v>410</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A4" s="25" t="s">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>280</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.9">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18">
-        <v>10005279</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="19">
-        <v>400</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <v>10005005</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="19">
-        <v>368</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A6" s="25" t="s">
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>280</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.9">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22">
-        <v>10003243</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20">
-        <v>530</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="16.5">
-      <c r="A7" s="25" t="s">
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>280</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.9">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10">
-        <v>10004679</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20">
-        <v>370</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12">
-        <v>10004107</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="20">
-        <v>405</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10004801</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20">
-        <v>345</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>280</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.9">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>280</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.9">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>280</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.9">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>280</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.9">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>280</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.9">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>280</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Vera/Template/福豆发放模板.xlsx
+++ b/Vera/Template/福豆发放模板.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattz\Documents\WorkSpace\Vera\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB2142-81C6-46B6-BA9F-BD250039AE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>公司</t>
   </si>
@@ -53,142 +47,47 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>240182</t>
-  </si>
-  <si>
-    <t>240236</t>
-  </si>
-  <si>
-    <t>240259</t>
-  </si>
-  <si>
-    <t>240262</t>
-  </si>
-  <si>
-    <t>240271</t>
-  </si>
-  <si>
-    <t>240295</t>
-  </si>
-  <si>
-    <t>240373</t>
-  </si>
-  <si>
-    <t>240377</t>
-  </si>
-  <si>
-    <t>240404</t>
-  </si>
-  <si>
-    <t>240442</t>
-  </si>
-  <si>
-    <t>240449</t>
-  </si>
-  <si>
-    <t>240516</t>
-  </si>
-  <si>
-    <t>240568</t>
-  </si>
-  <si>
-    <t>240577</t>
-  </si>
-  <si>
-    <t>240615</t>
-  </si>
-  <si>
-    <t>240625</t>
-  </si>
-  <si>
-    <t>240636</t>
-  </si>
-  <si>
-    <t>240648</t>
-  </si>
-  <si>
-    <t>240689</t>
-  </si>
-  <si>
-    <t>240720</t>
-  </si>
-  <si>
-    <t>信颖</t>
-  </si>
-  <si>
-    <t>孙佳</t>
-  </si>
-  <si>
-    <t>叶潘婷</t>
-  </si>
-  <si>
-    <t>沈雅莉</t>
-  </si>
-  <si>
-    <t>张隽懿</t>
-  </si>
-  <si>
-    <t>王雪</t>
-  </si>
-  <si>
-    <t>陈琢仪</t>
-  </si>
-  <si>
-    <t>王玉</t>
-  </si>
-  <si>
-    <t>罗曾</t>
-  </si>
-  <si>
-    <t>王婕妤</t>
-  </si>
-  <si>
-    <t>杨宇佳</t>
-  </si>
-  <si>
-    <t>吕颖</t>
-  </si>
-  <si>
-    <t>陈玥</t>
-  </si>
-  <si>
-    <t>黄康铭</t>
-  </si>
-  <si>
-    <t>殷英</t>
-  </si>
-  <si>
-    <t>倪林丽</t>
-  </si>
-  <si>
-    <t>王海琴</t>
-  </si>
-  <si>
-    <t>杨青青</t>
-  </si>
-  <si>
-    <t>陈佳辉</t>
-  </si>
-  <si>
-    <t>恩思恩有限公司</t>
-  </si>
-  <si>
-    <t>王慧芳</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月生日</t>
-  </si>
-  <si>
-    <t>12月生日</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <t>WZ6</t>
+  </si>
+  <si>
+    <t>WZ7</t>
+  </si>
+  <si>
+    <t>WZ8</t>
+  </si>
+  <si>
+    <t>WZ11</t>
+  </si>
+  <si>
+    <t>WZ10</t>
+  </si>
+  <si>
+    <t>邢会如</t>
+  </si>
+  <si>
+    <t>汪琴</t>
+  </si>
+  <si>
+    <t>吴剑刃</t>
+  </si>
+  <si>
+    <t>周梦婧</t>
+  </si>
+  <si>
+    <t>沈彦淳</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>上海卫展医院管理有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,13 +275,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,8 +473,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -686,16 +597,29 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,11 +633,13 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,46 +769,60 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 5 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+  <cellStyles count="46">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Normal 5" xfId="43"/>
+    <cellStyle name="Normal 5 2 2" xfId="44"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 2" xfId="42"/>
+    <cellStyle name="常规 3" xfId="45"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -891,12 +831,6 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -907,19 +841,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -961,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,27 +919,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,24 +953,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1238,20 +1128,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G2:G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="1"/>
-    <col min="2" max="8" width="12.46484375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27.75">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1277,485 +1167,125 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
-        <v>280</v>
+      <c r="E2" s="7">
+        <v>500</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <v>280</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="7">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
-        <v>280</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="8">
+        <v>500</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
-        <v>280</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="8">
+        <v>500</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>51</v>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
-        <v>280</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.9">
-      <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>280</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.9">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>280</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.9">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>280</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.9">
-      <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>280</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.9">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>280</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.9">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>280</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.9">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>280</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.9">
-      <c r="A14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>280</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.9">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>280</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.9">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>280</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.9">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3">
-        <v>280</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.9">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>280</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.9">
-      <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3">
-        <v>280</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.9">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3">
-        <v>280</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.9">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3">
-        <v>280</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
